--- a/DymonProject/DymonProject/Bloomberg.xlsx
+++ b/DymonProject/DymonProject/Bloomberg.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="14595"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="14595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EUR Yield" sheetId="1" r:id="rId1"/>
     <sheet name="USD Yield" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Vol Surface" sheetId="5" r:id="rId3"/>
     <sheet name="BloomBerg" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -285,8 +285,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -336,8 +336,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,7 +384,7 @@
               <c:strCache>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>3/7/2013</c:v>
+                  <c:v>7/3/2013</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3/14/2013</c:v>
@@ -429,7 +429,7 @@
                   <c:v>2/28/2014</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3/2/2015</c:v>
+                  <c:v>2/3/2015</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2/29/2016</c:v>
@@ -447,7 +447,7 @@
                   <c:v>2/28/2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3/1/2021</c:v>
+                  <c:v>1/3/2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2/28/2022</c:v>
@@ -462,10 +462,10 @@
                   <c:v>2/28/2033</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3/1/2038</c:v>
+                  <c:v>1/3/2038</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3/2/2043</c:v>
+                  <c:v>2/3/2043</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -575,11 +575,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="217575808"/>
-        <c:axId val="217578496"/>
+        <c:axId val="279114880"/>
+        <c:axId val="279116416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="217575808"/>
+        <c:axId val="279114880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,7 +589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217578496"/>
+        <c:crossAx val="279116416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -597,7 +597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217578496"/>
+        <c:axId val="279116416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -608,7 +608,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217575808"/>
+        <c:crossAx val="279114880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -854,11 +854,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="253652352"/>
-        <c:axId val="228934784"/>
+        <c:axId val="279333120"/>
+        <c:axId val="279371776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="253652352"/>
+        <c:axId val="279333120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,14 +868,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228934784"/>
+        <c:crossAx val="279371776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="228934784"/>
+        <c:axId val="279371776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253652352"/>
+        <c:crossAx val="279333120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -933,7 +933,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$10</c:f>
+              <c:f>'Vol Surface'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -947,7 +947,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:f>'Vol Surface'!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -989,42 +989,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$10:$L$10</c:f>
+              <c:f>'Vol Surface'!$B$10:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>11.382400000000001</c:v>
+                  <c:v>9.7452100000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.289199999999999</c:v>
+                  <c:v>9.5848099999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3999500000000005</c:v>
+                  <c:v>9.5107099999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.85318</c:v>
+                  <c:v>9.5462100000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6489100000000008</c:v>
+                  <c:v>9.6913099999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7871500000000005</c:v>
+                  <c:v>9.9460099999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2679100000000005</c:v>
+                  <c:v>10.3103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.091200000000001</c:v>
+                  <c:v>10.7842</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.257</c:v>
+                  <c:v>11.367699999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.7652</c:v>
+                  <c:v>12.0608</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.4155</c:v>
+                  <c:v>12.7783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1036,7 +1036,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$18</c:f>
+              <c:f>'Vol Surface'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1050,7 +1050,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:f>'Vol Surface'!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1092,7 +1092,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$18:$L$18</c:f>
+              <c:f>'Vol Surface'!$B$18:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1138,11 +1138,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213423232"/>
-        <c:axId val="213424768"/>
+        <c:axId val="283178112"/>
+        <c:axId val="283179648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213423232"/>
+        <c:axId val="283178112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,7 +1152,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213424768"/>
+        <c:crossAx val="283179648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1160,7 +1160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213424768"/>
+        <c:axId val="283179648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,7 +1171,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213423232"/>
+        <c:crossAx val="283178112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1280,8 +1280,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1587,7 +1589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -2096,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D38" sqref="D37:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2649,8 +2651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,37 +2701,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.098500000000001</v>
+        <v>19.402699999999999</v>
       </c>
       <c r="C2">
-        <v>20.056000000000001</v>
+        <v>19.329000000000001</v>
       </c>
       <c r="D2">
-        <v>19.201899999999998</v>
+        <v>19.3216</v>
       </c>
       <c r="E2">
-        <v>18.668199999999999</v>
+        <v>19.392600000000002</v>
       </c>
       <c r="F2">
-        <v>18.454699999999999</v>
+        <v>19.542000000000002</v>
       </c>
       <c r="G2">
-        <v>18.561499999999999</v>
+        <v>19.7698</v>
       </c>
       <c r="H2">
-        <v>18.988700000000001</v>
+        <v>20.076000000000001</v>
       </c>
       <c r="I2">
-        <v>19.7362</v>
+        <v>20.460599999999999</v>
       </c>
       <c r="J2">
-        <v>20.803899999999999</v>
+        <v>20.9236</v>
       </c>
       <c r="K2">
-        <v>22.192</v>
+        <v>21.465</v>
       </c>
       <c r="L2">
-        <v>23.7151</v>
+        <v>22.019300000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2737,37 +2739,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.4923</v>
+        <v>12.761100000000001</v>
       </c>
       <c r="C3">
-        <v>13.537699999999999</v>
+        <v>12.795500000000001</v>
       </c>
       <c r="D3">
-        <v>12.747299999999999</v>
+        <v>12.869400000000001</v>
       </c>
       <c r="E3">
-        <v>12.241400000000001</v>
+        <v>12.9809</v>
       </c>
       <c r="F3">
-        <v>12.020099999999999</v>
+        <v>13.13</v>
       </c>
       <c r="G3">
-        <v>12.083299999999999</v>
+        <v>13.316700000000001</v>
       </c>
       <c r="H3">
-        <v>12.431100000000001</v>
+        <v>13.541</v>
       </c>
       <c r="I3">
-        <v>13.0634</v>
+        <v>13.802899999999999</v>
       </c>
       <c r="J3">
-        <v>13.9803</v>
+        <v>14.102399999999999</v>
       </c>
       <c r="K3">
-        <v>15.181699999999999</v>
+        <v>14.439500000000001</v>
       </c>
       <c r="L3">
-        <v>16.5062</v>
+        <v>14.775</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2775,37 +2777,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.67</v>
+        <v>11.173299999999999</v>
       </c>
       <c r="C4">
-        <v>11.8253</v>
+        <v>11.1836</v>
       </c>
       <c r="D4">
-        <v>11.127599999999999</v>
+        <v>11.2331</v>
       </c>
       <c r="E4">
-        <v>10.683299999999999</v>
+        <v>11.3226</v>
       </c>
       <c r="F4">
-        <v>10.492599999999999</v>
+        <v>11.4521</v>
       </c>
       <c r="G4">
-        <v>10.555300000000001</v>
+        <v>11.621600000000001</v>
       </c>
       <c r="H4">
-        <v>10.871600000000001</v>
+        <v>11.831099999999999</v>
       </c>
       <c r="I4">
-        <v>11.4413</v>
+        <v>12.0806</v>
       </c>
       <c r="J4">
-        <v>12.2646</v>
+        <v>12.370100000000001</v>
       </c>
       <c r="K4">
-        <v>13.3413</v>
+        <v>12.6996</v>
       </c>
       <c r="L4">
-        <v>14.527100000000001</v>
+        <v>13.0304</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2813,37 +2815,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.790900000000001</v>
+        <v>10.4855</v>
       </c>
       <c r="C5">
-        <v>11.020300000000001</v>
+        <v>10.460599999999999</v>
       </c>
       <c r="D5">
-        <v>10.3865</v>
+        <v>10.4786</v>
       </c>
       <c r="E5">
-        <v>9.9870099999999997</v>
+        <v>10.544600000000001</v>
       </c>
       <c r="F5">
-        <v>9.8216999999999999</v>
+        <v>10.6586</v>
       </c>
       <c r="G5">
-        <v>9.8905899999999995</v>
+        <v>10.820600000000001</v>
       </c>
       <c r="H5">
-        <v>10.1937</v>
+        <v>11.0306</v>
       </c>
       <c r="I5">
-        <v>10.731</v>
+        <v>11.288600000000001</v>
       </c>
       <c r="J5">
-        <v>11.5025</v>
+        <v>11.5946</v>
       </c>
       <c r="K5">
-        <v>12.5083</v>
+        <v>11.948600000000001</v>
       </c>
       <c r="L5">
-        <v>13.6137</v>
+        <v>12.308299999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2851,37 +2853,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.1729</v>
+        <v>10.058299999999999</v>
       </c>
       <c r="C6">
-        <v>10.4802</v>
+        <v>10.0024</v>
       </c>
       <c r="D6">
-        <v>9.9133999999999993</v>
+        <v>9.9920000000000009</v>
       </c>
       <c r="E6">
-        <v>9.5599399999999992</v>
+        <v>10.036</v>
       </c>
       <c r="F6">
-        <v>9.4198699999999995</v>
+        <v>10.134399999999999</v>
       </c>
       <c r="G6">
-        <v>9.4931699999999992</v>
+        <v>10.2872</v>
       </c>
       <c r="H6">
-        <v>9.7798700000000007</v>
+        <v>10.494400000000001</v>
       </c>
       <c r="I6">
-        <v>10.2799</v>
+        <v>10.756</v>
       </c>
       <c r="J6">
-        <v>10.993399999999999</v>
+        <v>11.071999999999999</v>
       </c>
       <c r="K6">
-        <v>11.920199999999999</v>
+        <v>11.442399999999999</v>
       </c>
       <c r="L6">
-        <v>12.9369</v>
+        <v>11.8223</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2889,37 +2891,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.9171</v>
+        <v>9.4641300000000008</v>
       </c>
       <c r="C7">
-        <v>10.021800000000001</v>
+        <v>9.39879</v>
       </c>
       <c r="D7">
-        <v>9.2884499999999992</v>
+        <v>9.3907900000000009</v>
       </c>
       <c r="E7">
-        <v>8.8303600000000007</v>
+        <v>9.4507899999999996</v>
       </c>
       <c r="F7">
-        <v>8.6475000000000009</v>
+        <v>9.5787899999999997</v>
       </c>
       <c r="G7">
-        <v>8.7398900000000008</v>
+        <v>9.7747899999999994</v>
       </c>
       <c r="H7">
-        <v>9.1074999999999999</v>
+        <v>10.0388</v>
       </c>
       <c r="I7">
-        <v>9.7503600000000006</v>
+        <v>10.370799999999999</v>
       </c>
       <c r="J7">
-        <v>10.6685</v>
+        <v>10.770799999999999</v>
       </c>
       <c r="K7">
-        <v>11.861800000000001</v>
+        <v>11.238799999999999</v>
       </c>
       <c r="L7">
-        <v>13.171099999999999</v>
+        <v>11.7181</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2927,37 +2929,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.9673</v>
+        <v>9.3308700000000009</v>
       </c>
       <c r="C8">
-        <v>9.9563699999999997</v>
+        <v>9.2545400000000004</v>
       </c>
       <c r="D8">
-        <v>9.1285500000000006</v>
+        <v>9.2434399999999997</v>
       </c>
       <c r="E8">
-        <v>8.6116799999999998</v>
+        <v>9.3099399999999992</v>
       </c>
       <c r="F8">
-        <v>8.4057600000000008</v>
+        <v>9.4540400000000009</v>
       </c>
       <c r="G8">
-        <v>8.5107900000000001</v>
+        <v>9.6757399999999993</v>
       </c>
       <c r="H8">
-        <v>8.9267599999999998</v>
+        <v>9.9750399999999999</v>
       </c>
       <c r="I8">
-        <v>9.6536799999999996</v>
+        <v>10.351900000000001</v>
       </c>
       <c r="J8">
-        <v>10.691599999999999</v>
+        <v>10.8064</v>
       </c>
       <c r="K8">
-        <v>12.0404</v>
+        <v>11.3385</v>
       </c>
       <c r="L8">
-        <v>13.520200000000001</v>
+        <v>11.883800000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2965,37 +2967,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.9757</v>
+        <v>9.4934799999999999</v>
       </c>
       <c r="C9">
-        <v>9.9752299999999998</v>
+        <v>9.3389100000000003</v>
       </c>
       <c r="D9">
-        <v>9.1623099999999997</v>
+        <v>9.2652099999999997</v>
       </c>
       <c r="E9">
-        <v>8.6637900000000005</v>
+        <v>9.2947100000000002</v>
       </c>
       <c r="F9">
-        <v>8.4796800000000001</v>
+        <v>9.4274100000000001</v>
       </c>
       <c r="G9">
-        <v>8.6099800000000002</v>
+        <v>9.6633099999999992</v>
       </c>
       <c r="H9">
-        <v>9.0546799999999994</v>
+        <v>10.0024</v>
       </c>
       <c r="I9">
-        <v>9.8137899999999991</v>
+        <v>10.444699999999999</v>
       </c>
       <c r="J9">
-        <v>10.8873</v>
+        <v>10.9902</v>
       </c>
       <c r="K9">
-        <v>12.2752</v>
+        <v>11.6389</v>
       </c>
       <c r="L9">
-        <v>13.793200000000001</v>
+        <v>12.311</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3003,37 +3005,37 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>11.382400000000001</v>
+        <v>9.7452100000000002</v>
       </c>
       <c r="C10" s="2">
-        <v>10.289199999999999</v>
+        <v>9.5848099999999992</v>
       </c>
       <c r="D10" s="2">
-        <v>9.3999500000000005</v>
+        <v>9.5107099999999996</v>
       </c>
       <c r="E10" s="2">
-        <v>8.85318</v>
+        <v>9.5462100000000003</v>
       </c>
       <c r="F10" s="2">
-        <v>8.6489100000000008</v>
+        <v>9.6913099999999996</v>
       </c>
       <c r="G10" s="2">
-        <v>8.7871500000000005</v>
+        <v>9.9460099999999994</v>
       </c>
       <c r="H10" s="2">
-        <v>9.2679100000000005</v>
+        <v>10.3103</v>
       </c>
       <c r="I10" s="2">
-        <v>10.091200000000001</v>
+        <v>10.7842</v>
       </c>
       <c r="J10" s="2">
-        <v>11.257</v>
+        <v>11.367699999999999</v>
       </c>
       <c r="K10" s="2">
-        <v>12.7652</v>
+        <v>12.0608</v>
       </c>
       <c r="L10" s="2">
-        <v>14.4155</v>
+        <v>12.7783</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3041,37 +3043,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.6419</v>
+        <v>10.0266</v>
       </c>
       <c r="C11">
-        <v>10.5511</v>
+        <v>9.8564900000000009</v>
       </c>
       <c r="D11">
-        <v>9.6646999999999998</v>
+        <v>9.7746899999999997</v>
       </c>
       <c r="E11">
-        <v>9.1209699999999998</v>
+        <v>9.8056900000000002</v>
       </c>
       <c r="F11">
-        <v>8.9199400000000004</v>
+        <v>9.9494900000000008</v>
       </c>
       <c r="G11">
-        <v>9.0615900000000007</v>
+        <v>10.206099999999999</v>
       </c>
       <c r="H11">
-        <v>9.5459399999999999</v>
+        <v>10.5755</v>
       </c>
       <c r="I11">
-        <v>10.372999999999999</v>
+        <v>11.057700000000001</v>
       </c>
       <c r="J11">
-        <v>11.5427</v>
+        <v>11.652699999999999</v>
       </c>
       <c r="K11">
-        <v>13.055099999999999</v>
+        <v>12.3605</v>
       </c>
       <c r="L11">
-        <v>14.709300000000001</v>
+        <v>13.093999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3079,37 +3081,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.869400000000001</v>
+        <v>10.077999999999999</v>
       </c>
       <c r="C12">
-        <v>10.7142</v>
+        <v>9.9440500000000007</v>
       </c>
       <c r="D12">
-        <v>9.77163</v>
+        <v>9.89405</v>
       </c>
       <c r="E12">
-        <v>9.1881199999999996</v>
+        <v>9.9480500000000003</v>
       </c>
       <c r="F12">
-        <v>8.9636099999999992</v>
+        <v>10.106</v>
       </c>
       <c r="G12">
-        <v>9.0981000000000005</v>
+        <v>10.368</v>
       </c>
       <c r="H12">
-        <v>9.5916099999999993</v>
+        <v>10.734</v>
       </c>
       <c r="I12">
-        <v>10.444100000000001</v>
+        <v>11.204000000000001</v>
       </c>
       <c r="J12">
-        <v>11.6556</v>
+        <v>11.778</v>
       </c>
       <c r="K12">
-        <v>13.2262</v>
+        <v>12.456</v>
       </c>
       <c r="L12">
-        <v>14.9466</v>
+        <v>13.155200000000001</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">

--- a/DymonProject/DymonProject/Bloomberg.xlsx
+++ b/DymonProject/DymonProject/Bloomberg.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="14595" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="96" windowWidth="22584" windowHeight="10128" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EUR Yield" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Vol Surface" sheetId="5" r:id="rId3"/>
     <sheet name="BloomBerg" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -283,12 +283,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,24 +354,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-SG"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -384,7 +372,7 @@
               <c:strCache>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>7/3/2013</c:v>
+                  <c:v>3/7/2013</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3/14/2013</c:v>
@@ -429,7 +417,7 @@
                   <c:v>2/28/2014</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2/3/2015</c:v>
+                  <c:v>3/2/2015</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2/29/2016</c:v>
@@ -447,7 +435,7 @@
                   <c:v>2/28/2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1/3/2021</c:v>
+                  <c:v>3/1/2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2/28/2022</c:v>
@@ -462,10 +450,10 @@
                   <c:v>2/28/2033</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1/3/2038</c:v>
+                  <c:v>3/1/2038</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2/3/2043</c:v>
+                  <c:v>3/2/2043</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -563,68 +551,48 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="279114880"/>
-        <c:axId val="279116416"/>
+        <c:axId val="109499520"/>
+        <c:axId val="109501056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="279114880"/>
+        <c:axId val="109499520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279116416"/>
+        <c:crossAx val="109501056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279116416"/>
+        <c:axId val="109501056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279114880"/>
+        <c:crossAx val="109499520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -632,24 +600,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-SG"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -660,7 +616,7 @@
             <c:numRef>
               <c:f>'USD Yield'!$A$4:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>41340</c:v>
@@ -842,67 +798,48 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="279333120"/>
-        <c:axId val="279371776"/>
+        <c:axId val="111839488"/>
+        <c:axId val="111853568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="279333120"/>
+        <c:axId val="111839488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279371776"/>
+        <c:crossAx val="111853568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="279371776"/>
+        <c:axId val="111853568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279333120"/>
+        <c:crossAx val="111839488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -910,24 +847,12 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-SG"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -947,89 +872,76 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Vol Surface'!$B$1:$L$1</c:f>
+              <c:f>'Vol Surface'!$B$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Vol Surface'!$B$10:$L$10</c:f>
+              <c:f>'Vol Surface'!$B$10:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9.7452100000000002</c:v>
+                  <c:v>9.1538000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5848099999999992</c:v>
+                  <c:v>9.0797000000000008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5107099999999996</c:v>
+                  <c:v>9.1151999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5462100000000003</c:v>
+                  <c:v>9.2603000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6913099999999996</c:v>
+                  <c:v>9.5150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9460099999999994</c:v>
+                  <c:v>9.8793000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.3103</c:v>
+                  <c:v>10.353199999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.7842</c:v>
+                  <c:v>10.9367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.367699999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.0608</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.7783</c:v>
+                  <c:v>11.629799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1050,128 +962,106 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Vol Surface'!$B$1:$L$1</c:f>
+              <c:f>'Vol Surface'!$B$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Vol Surface'!$B$18:$L$18</c:f>
+              <c:f>'Vol Surface'!$B$18:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.0250000000000004</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0250000000000004</c:v>
+                  <c:v>9.0129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0129999999999999</c:v>
+                  <c:v>9.1157000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1157000000000004</c:v>
+                  <c:v>9.3011999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3011999999999997</c:v>
+                  <c:v>9.56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.56</c:v>
+                  <c:v>9.9186999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9186999999999994</c:v>
+                  <c:v>10.4292</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.4292</c:v>
+                  <c:v>11.175000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.175000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>12.345000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="283178112"/>
-        <c:axId val="283179648"/>
+        <c:axId val="112968832"/>
+        <c:axId val="112970368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="283178112"/>
+        <c:axId val="112968832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="283179648"/>
+        <c:crossAx val="112970368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="283179648"/>
+        <c:axId val="112970368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="6"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="283178112"/>
+        <c:crossAx val="112968832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1179,15 +1069,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1268,15 +1156,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1375,7 +1263,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1410,7 +1297,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1586,20 +1472,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5">
       <c r="C1" t="s">
         <v>58</v>
       </c>
@@ -1610,7 +1496,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1618,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1626,7 +1512,7 @@
         <v>0.99999899999999997</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5">
       <c r="B4" s="1">
         <v>41458</v>
       </c>
@@ -1641,7 +1527,7 @@
         <v>-1.999999999946489E-6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
@@ -1656,7 +1542,7 @@
         <v>-1.7000000000044757E-5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>67</v>
       </c>
@@ -1671,7 +1557,7 @@
         <v>-2.5999999999970491E-5</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
         <v>68</v>
       </c>
@@ -1686,7 +1572,7 @@
         <v>-5.5000000000027249E-5</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>69</v>
       </c>
@@ -1701,7 +1587,7 @@
         <v>9.9999999999544897E-6</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>70</v>
       </c>
@@ -1716,7 +1602,7 @@
         <v>7.699999999999374E-5</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
         <v>71</v>
       </c>
@@ -1731,7 +1617,7 @@
         <v>5.0000000000105516E-5</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>72</v>
       </c>
@@ -1746,7 +1632,7 @@
         <v>9.8999999999960231E-5</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>73</v>
       </c>
@@ -1761,7 +1647,7 @@
         <v>-5.7000000000084761E-5</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5">
       <c r="B13" s="1" t="s">
         <v>74</v>
       </c>
@@ -1776,7 +1662,7 @@
         <v>8.9000000000005741E-5</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1791,7 +1677,7 @@
         <v>2.5000000000052758E-5</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1806,7 +1692,7 @@
         <v>3.0600000000002847E-4</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5">
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1821,7 +1707,7 @@
         <v>7.8999999999940229E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="B17" s="1" t="s">
         <v>75</v>
       </c>
@@ -1836,7 +1722,7 @@
         <v>1.2399999999990197E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1854,7 +1740,7 @@
         <v>-6.6000000000010495E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1872,7 +1758,7 @@
         <v>3.8199999999999346E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1890,7 +1776,7 @@
         <v>3.609999999999447E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1908,7 +1794,7 @@
         <v>4.4100000000002471E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1926,7 +1812,7 @@
         <v>4.950000000000232E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1944,7 +1830,7 @@
         <v>4.9099999999990818E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>7</v>
       </c>
@@ -1962,7 +1848,7 @@
         <v>5.1299999999998569E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>8</v>
       </c>
@@ -1980,7 +1866,7 @@
         <v>5.4699999999996418E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1998,7 +1884,7 @@
         <v>5.6000000000000494E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>10</v>
       </c>
@@ -2016,7 +1902,7 @@
         <v>3.9900000000003821E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>15</v>
       </c>
@@ -2034,7 +1920,7 @@
         <v>3.849999999999687E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>20</v>
       </c>
@@ -2052,7 +1938,7 @@
         <v>4.6799999999991293E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>25</v>
       </c>
@@ -2070,7 +1956,7 @@
         <v>5.6400000000000894E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2095,22 +1981,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D38" sqref="D37:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>58</v>
       </c>
@@ -2121,7 +2007,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>41331</v>
       </c>
@@ -2135,7 +2021,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>41332</v>
       </c>
@@ -2146,7 +2032,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>41340</v>
       </c>
@@ -2163,7 +2049,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>41347</v>
       </c>
@@ -2180,7 +2066,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>41354</v>
       </c>
@@ -2196,7 +2082,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>41362</v>
       </c>
@@ -2212,7 +2098,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>41394</v>
       </c>
@@ -2228,7 +2114,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>41425</v>
       </c>
@@ -2244,7 +2130,7 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>41453</v>
       </c>
@@ -2260,7 +2146,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>41486</v>
       </c>
@@ -2276,7 +2162,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>41516</v>
       </c>
@@ -2292,7 +2178,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>41547</v>
       </c>
@@ -2308,7 +2194,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>41578</v>
       </c>
@@ -2325,7 +2211,7 @@
       <c r="E14" s="3"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>41607</v>
       </c>
@@ -2342,7 +2228,7 @@
       <c r="E15" s="3"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>41639</v>
       </c>
@@ -2359,7 +2245,7 @@
       <c r="E16" s="3"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>41670</v>
       </c>
@@ -2376,7 +2262,7 @@
       <c r="E17" s="3"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>41698</v>
       </c>
@@ -2393,7 +2279,7 @@
       <c r="E18" s="3"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>42065</v>
       </c>
@@ -2410,7 +2296,7 @@
       <c r="E19" s="3"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>42429</v>
       </c>
@@ -2427,7 +2313,7 @@
       <c r="E20" s="3"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>42794</v>
       </c>
@@ -2444,7 +2330,7 @@
       <c r="E21" s="3"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>43159</v>
       </c>
@@ -2461,7 +2347,7 @@
       <c r="E22" s="3"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>43524</v>
       </c>
@@ -2478,7 +2364,7 @@
       <c r="E23" s="3"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>43889</v>
       </c>
@@ -2495,7 +2381,7 @@
       <c r="E24" s="3"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>44256</v>
       </c>
@@ -2512,7 +2398,7 @@
       <c r="E25" s="3"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>44620</v>
       </c>
@@ -2529,7 +2415,7 @@
       <c r="E26" s="3"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>44985</v>
       </c>
@@ -2546,7 +2432,7 @@
       <c r="E27" s="3"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>46811</v>
       </c>
@@ -2563,7 +2449,7 @@
       <c r="E28" s="3"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>48638</v>
       </c>
@@ -2581,7 +2467,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>50465</v>
       </c>
@@ -2599,7 +2485,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>52292</v>
       </c>
@@ -2616,29 +2502,29 @@
       <c r="E31" s="3"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="E32" s="3"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:8">
       <c r="E33" s="3"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:8">
       <c r="E34" s="3"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:8">
       <c r="E35" s="3"/>
       <c r="G35" s="5"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:8">
       <c r="E36" s="3"/>
       <c r="G36" s="5"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:8">
       <c r="E37" s="3"/>
     </row>
   </sheetData>
@@ -2648,653 +2534,556 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J1">
-        <v>0.8</v>
-      </c>
-      <c r="K1">
         <v>0.9</v>
       </c>
-      <c r="L1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.402699999999999</v>
+        <v>18.8767</v>
       </c>
       <c r="C2">
-        <v>19.329000000000001</v>
+        <v>18.869299999999999</v>
       </c>
       <c r="D2">
-        <v>19.3216</v>
+        <v>18.940300000000001</v>
       </c>
       <c r="E2">
-        <v>19.392600000000002</v>
+        <v>19.089700000000001</v>
       </c>
       <c r="F2">
-        <v>19.542000000000002</v>
+        <v>19.317499999999999</v>
       </c>
       <c r="G2">
-        <v>19.7698</v>
+        <v>19.623699999999999</v>
       </c>
       <c r="H2">
-        <v>20.076000000000001</v>
+        <v>20.008299999999998</v>
       </c>
       <c r="I2">
-        <v>20.460599999999999</v>
+        <v>20.471299999999999</v>
       </c>
       <c r="J2">
-        <v>20.9236</v>
-      </c>
-      <c r="K2">
-        <v>21.465</v>
-      </c>
-      <c r="L2">
-        <v>22.019300000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21.012699999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.761100000000001</v>
+        <v>12.3338</v>
       </c>
       <c r="C3">
-        <v>12.795500000000001</v>
+        <v>12.4077</v>
       </c>
       <c r="D3">
-        <v>12.869400000000001</v>
+        <v>12.5192</v>
       </c>
       <c r="E3">
-        <v>12.9809</v>
+        <v>12.6683</v>
       </c>
       <c r="F3">
-        <v>13.13</v>
+        <v>12.855</v>
       </c>
       <c r="G3">
-        <v>13.316700000000001</v>
+        <v>13.0793</v>
       </c>
       <c r="H3">
-        <v>13.541</v>
+        <v>13.341200000000001</v>
       </c>
       <c r="I3">
-        <v>13.802899999999999</v>
+        <v>13.640700000000001</v>
       </c>
       <c r="J3">
-        <v>14.102399999999999</v>
-      </c>
-      <c r="K3">
-        <v>14.439500000000001</v>
-      </c>
-      <c r="L3">
-        <v>14.775</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>13.9778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.173299999999999</v>
+        <v>10.7845</v>
       </c>
       <c r="C4">
-        <v>11.1836</v>
+        <v>10.834</v>
       </c>
       <c r="D4">
-        <v>11.2331</v>
+        <v>10.923500000000001</v>
       </c>
       <c r="E4">
-        <v>11.3226</v>
+        <v>11.053000000000001</v>
       </c>
       <c r="F4">
-        <v>11.4521</v>
+        <v>11.2225</v>
       </c>
       <c r="G4">
-        <v>11.621600000000001</v>
+        <v>11.432</v>
       </c>
       <c r="H4">
-        <v>11.831099999999999</v>
+        <v>11.6815</v>
       </c>
       <c r="I4">
-        <v>12.0806</v>
+        <v>11.971</v>
       </c>
       <c r="J4">
-        <v>12.370100000000001</v>
-      </c>
-      <c r="K4">
-        <v>12.6996</v>
-      </c>
-      <c r="L4">
-        <v>13.0304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12.3005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.4855</v>
+        <v>10.112500000000001</v>
       </c>
       <c r="C5">
-        <v>10.460599999999999</v>
+        <v>10.1305</v>
       </c>
       <c r="D5">
-        <v>10.4786</v>
+        <v>10.1965</v>
       </c>
       <c r="E5">
-        <v>10.544600000000001</v>
+        <v>10.310499999999999</v>
       </c>
       <c r="F5">
-        <v>10.6586</v>
+        <v>10.4725</v>
       </c>
       <c r="G5">
-        <v>10.820600000000001</v>
+        <v>10.682499999999999</v>
       </c>
       <c r="H5">
-        <v>11.0306</v>
+        <v>10.9405</v>
       </c>
       <c r="I5">
-        <v>11.288600000000001</v>
+        <v>11.246499999999999</v>
       </c>
       <c r="J5">
-        <v>11.5946</v>
-      </c>
-      <c r="K5">
-        <v>11.948600000000001</v>
-      </c>
-      <c r="L5">
-        <v>12.308299999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11.6005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.058299999999999</v>
+        <v>9.7051999999999996</v>
       </c>
       <c r="C6">
-        <v>10.0024</v>
+        <v>9.6948000000000008</v>
       </c>
       <c r="D6">
-        <v>9.9920000000000009</v>
+        <v>9.7387999999999995</v>
       </c>
       <c r="E6">
-        <v>10.036</v>
+        <v>9.8371999999999993</v>
       </c>
       <c r="F6">
-        <v>10.134399999999999</v>
+        <v>9.99</v>
       </c>
       <c r="G6">
-        <v>10.2872</v>
+        <v>10.1972</v>
       </c>
       <c r="H6">
-        <v>10.494400000000001</v>
+        <v>10.4588</v>
       </c>
       <c r="I6">
-        <v>10.756</v>
+        <v>10.774800000000001</v>
       </c>
       <c r="J6">
-        <v>11.071999999999999</v>
-      </c>
-      <c r="K6">
-        <v>11.442399999999999</v>
-      </c>
-      <c r="L6">
-        <v>11.8223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11.145200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.4641300000000008</v>
+        <v>9.0114999999999998</v>
       </c>
       <c r="C7">
-        <v>9.39879</v>
+        <v>9.0035000000000007</v>
       </c>
       <c r="D7">
-        <v>9.3907900000000009</v>
+        <v>9.0634999999999994</v>
       </c>
       <c r="E7">
-        <v>9.4507899999999996</v>
+        <v>9.1914999999999996</v>
       </c>
       <c r="F7">
-        <v>9.5787899999999997</v>
+        <v>9.3874999999999993</v>
       </c>
       <c r="G7">
-        <v>9.7747899999999994</v>
+        <v>9.6515000000000004</v>
       </c>
       <c r="H7">
-        <v>10.0388</v>
+        <v>9.9834999999999994</v>
       </c>
       <c r="I7">
-        <v>10.370799999999999</v>
+        <v>10.3835</v>
       </c>
       <c r="J7">
-        <v>10.770799999999999</v>
-      </c>
-      <c r="K7">
-        <v>11.238799999999999</v>
-      </c>
-      <c r="L7">
-        <v>11.7181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10.8515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.3308700000000009</v>
+        <v>8.8187999999999995</v>
       </c>
       <c r="C8">
-        <v>9.2545400000000004</v>
+        <v>8.8077000000000005</v>
       </c>
       <c r="D8">
-        <v>9.2434399999999997</v>
+        <v>8.8742000000000001</v>
       </c>
       <c r="E8">
-        <v>9.3099399999999992</v>
+        <v>9.0183</v>
       </c>
       <c r="F8">
-        <v>9.4540400000000009</v>
+        <v>9.24</v>
       </c>
       <c r="G8">
-        <v>9.6757399999999993</v>
+        <v>9.5393000000000008</v>
       </c>
       <c r="H8">
-        <v>9.9750399999999999</v>
+        <v>9.9161999999999999</v>
       </c>
       <c r="I8">
-        <v>10.351900000000001</v>
+        <v>10.370699999999999</v>
       </c>
       <c r="J8">
-        <v>10.8064</v>
-      </c>
-      <c r="K8">
-        <v>11.3385</v>
-      </c>
-      <c r="L8">
-        <v>11.883800000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10.902799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.4934799999999999</v>
+        <v>8.9456000000000007</v>
       </c>
       <c r="C9">
-        <v>9.3389100000000003</v>
+        <v>8.8719000000000001</v>
       </c>
       <c r="D9">
-        <v>9.2652099999999997</v>
+        <v>8.9014000000000006</v>
       </c>
       <c r="E9">
-        <v>9.2947100000000002</v>
+        <v>9.0341000000000005</v>
       </c>
       <c r="F9">
-        <v>9.4274100000000001</v>
+        <v>9.27</v>
       </c>
       <c r="G9">
-        <v>9.6633099999999992</v>
+        <v>9.6090999999999998</v>
       </c>
       <c r="H9">
-        <v>10.0024</v>
+        <v>10.051399999999999</v>
       </c>
       <c r="I9">
-        <v>10.444699999999999</v>
+        <v>10.5969</v>
       </c>
       <c r="J9">
-        <v>10.9902</v>
-      </c>
-      <c r="K9">
-        <v>11.6389</v>
-      </c>
-      <c r="L9">
-        <v>12.311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11.2456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>9.7452100000000002</v>
+        <v>9.1538000000000004</v>
       </c>
       <c r="C10" s="2">
-        <v>9.5848099999999992</v>
+        <v>9.0797000000000008</v>
       </c>
       <c r="D10" s="2">
-        <v>9.5107099999999996</v>
+        <v>9.1151999999999997</v>
       </c>
       <c r="E10" s="2">
-        <v>9.5462100000000003</v>
+        <v>9.2603000000000009</v>
       </c>
       <c r="F10" s="2">
-        <v>9.6913099999999996</v>
+        <v>9.5150000000000006</v>
       </c>
       <c r="G10" s="2">
-        <v>9.9460099999999994</v>
+        <v>9.8793000000000006</v>
       </c>
       <c r="H10" s="2">
-        <v>10.3103</v>
+        <v>10.353199999999999</v>
       </c>
       <c r="I10" s="2">
-        <v>10.7842</v>
+        <v>10.9367</v>
       </c>
       <c r="J10" s="2">
-        <v>11.367699999999999</v>
-      </c>
-      <c r="K10" s="2">
-        <v>12.0608</v>
-      </c>
-      <c r="L10" s="2">
-        <v>12.7783</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11.629799999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.0266</v>
+        <v>9.4304000000000006</v>
       </c>
       <c r="C11">
-        <v>9.8564900000000009</v>
+        <v>9.3485999999999994</v>
       </c>
       <c r="D11">
-        <v>9.7746899999999997</v>
+        <v>9.3795999999999999</v>
       </c>
       <c r="E11">
-        <v>9.8056900000000002</v>
+        <v>9.5234000000000005</v>
       </c>
       <c r="F11">
-        <v>9.9494900000000008</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="G11">
-        <v>10.206099999999999</v>
+        <v>10.1494</v>
       </c>
       <c r="H11">
-        <v>10.5755</v>
+        <v>10.631600000000001</v>
       </c>
       <c r="I11">
-        <v>11.057700000000001</v>
+        <v>11.226599999999999</v>
       </c>
       <c r="J11">
-        <v>11.652699999999999</v>
-      </c>
-      <c r="K11">
-        <v>12.3605</v>
-      </c>
-      <c r="L11">
-        <v>13.093999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11.9344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.077999999999999</v>
+        <v>9.4710000000000001</v>
       </c>
       <c r="C12">
-        <v>9.9440500000000007</v>
+        <v>9.4209999999999994</v>
       </c>
       <c r="D12">
-        <v>9.89405</v>
+        <v>9.4749999999999996</v>
       </c>
       <c r="E12">
-        <v>9.9480500000000003</v>
+        <v>9.6329999999999991</v>
       </c>
       <c r="F12">
-        <v>10.106</v>
+        <v>9.8949999999999996</v>
       </c>
       <c r="G12">
-        <v>10.368</v>
+        <v>10.260999999999999</v>
       </c>
       <c r="H12">
-        <v>10.734</v>
+        <v>10.731</v>
       </c>
       <c r="I12">
-        <v>11.204000000000001</v>
+        <v>11.305</v>
       </c>
       <c r="J12">
-        <v>11.778</v>
-      </c>
-      <c r="K12">
-        <v>12.456</v>
-      </c>
-      <c r="L12">
-        <v>13.155200000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11.983000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.8145000000000007</v>
+        <v>9.6974999999999998</v>
       </c>
       <c r="C13">
-        <v>9.6974999999999998</v>
+        <v>9.6624999999999996</v>
       </c>
       <c r="D13">
-        <v>9.6624999999999996</v>
+        <v>9.7274999999999991</v>
       </c>
       <c r="E13">
-        <v>9.7274999999999991</v>
+        <v>9.8925000000000001</v>
       </c>
       <c r="F13">
-        <v>9.8925000000000001</v>
+        <v>10.157500000000001</v>
       </c>
       <c r="G13">
-        <v>10.157500000000001</v>
+        <v>10.522500000000001</v>
       </c>
       <c r="H13">
-        <v>10.522500000000001</v>
+        <v>10.987500000000001</v>
       </c>
       <c r="I13">
-        <v>10.987500000000001</v>
+        <v>11.5525</v>
       </c>
       <c r="J13">
-        <v>11.5525</v>
-      </c>
-      <c r="K13">
         <v>12.217499999999999</v>
       </c>
-      <c r="L13">
-        <v>12.9015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.180199999999999</v>
+        <v>10.1097</v>
       </c>
       <c r="C14">
-        <v>10.1097</v>
+        <v>10.1173</v>
       </c>
       <c r="D14">
-        <v>10.1173</v>
+        <v>10.215299999999999</v>
       </c>
       <c r="E14">
-        <v>10.215299999999999</v>
+        <v>10.403700000000001</v>
       </c>
       <c r="F14">
-        <v>10.403700000000001</v>
+        <v>10.682499999999999</v>
       </c>
       <c r="G14">
-        <v>10.682499999999999</v>
+        <v>11.0517</v>
       </c>
       <c r="H14">
-        <v>11.0517</v>
+        <v>11.5113</v>
       </c>
       <c r="I14">
-        <v>11.5113</v>
+        <v>12.061299999999999</v>
       </c>
       <c r="J14">
-        <v>12.061299999999999</v>
-      </c>
-      <c r="K14">
         <v>12.701700000000001</v>
       </c>
-      <c r="L14">
-        <v>13.355399999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.0886</v>
+        <v>10.010400000000001</v>
       </c>
       <c r="C15">
-        <v>10.010400000000001</v>
+        <v>10.023099999999999</v>
       </c>
       <c r="D15">
-        <v>10.023099999999999</v>
+        <v>10.140599999999999</v>
       </c>
       <c r="E15">
-        <v>10.140599999999999</v>
+        <v>10.3629</v>
       </c>
       <c r="F15">
-        <v>10.3629</v>
+        <v>10.69</v>
       </c>
       <c r="G15">
-        <v>10.69</v>
+        <v>11.1219</v>
       </c>
       <c r="H15">
-        <v>11.1219</v>
+        <v>11.6586</v>
       </c>
       <c r="I15">
-        <v>11.6586</v>
+        <v>12.3001</v>
       </c>
       <c r="J15">
-        <v>12.3001</v>
-      </c>
-      <c r="K15">
         <v>13.0464</v>
       </c>
-      <c r="L15">
-        <v>13.807700000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.153700000000001</v>
+        <v>10.119199999999999</v>
       </c>
       <c r="C16">
-        <v>10.119199999999999</v>
+        <v>10.174300000000001</v>
       </c>
       <c r="D16">
-        <v>10.174300000000001</v>
+        <v>10.3278</v>
       </c>
       <c r="E16">
-        <v>10.3278</v>
+        <v>10.579700000000001</v>
       </c>
       <c r="F16">
-        <v>10.579700000000001</v>
+        <v>10.93</v>
       </c>
       <c r="G16">
-        <v>10.93</v>
+        <v>11.3787</v>
       </c>
       <c r="H16">
-        <v>11.3787</v>
+        <v>11.925800000000001</v>
       </c>
       <c r="I16">
-        <v>11.925800000000001</v>
+        <v>12.571300000000001</v>
       </c>
       <c r="J16">
-        <v>12.571300000000001</v>
-      </c>
-      <c r="K16">
         <v>13.315200000000001</v>
       </c>
-      <c r="L16">
-        <v>14.0688</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>15</v>
       </c>
+      <c r="B18">
+        <v>9.0250000000000004</v>
+      </c>
       <c r="C18">
-        <v>9.0250000000000004</v>
+        <v>9.0129999999999999</v>
       </c>
       <c r="D18">
-        <v>9.0129999999999999</v>
+        <v>9.1157000000000004</v>
       </c>
       <c r="E18">
-        <v>9.1157000000000004</v>
+        <v>9.3011999999999997</v>
       </c>
       <c r="F18">
-        <v>9.3011999999999997</v>
+        <v>9.56</v>
       </c>
       <c r="G18">
-        <v>9.56</v>
+        <v>9.9186999999999994</v>
       </c>
       <c r="H18">
-        <v>9.9186999999999994</v>
+        <v>10.4292</v>
       </c>
       <c r="I18">
-        <v>10.4292</v>
+        <v>11.175000000000001</v>
       </c>
       <c r="J18">
-        <v>11.175000000000001</v>
-      </c>
-      <c r="K18">
         <v>12.345000000000001</v>
       </c>
     </row>
@@ -3305,19 +3094,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -3349,7 +3138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -3377,7 +3166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -3405,7 +3194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -3437,7 +3226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -3469,7 +3258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -3501,7 +3290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -3533,7 +3322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -3565,7 +3354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -3597,7 +3386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -3629,7 +3418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -3661,7 +3450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -3693,7 +3482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -3725,7 +3514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
@@ -3757,7 +3546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -3789,7 +3578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -3821,7 +3610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -3853,7 +3642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
@@ -3885,7 +3674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
@@ -3917,7 +3706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -3949,7 +3738,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -3981,7 +3770,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="3" t="s">
         <v>43</v>
       </c>
@@ -4013,7 +3802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -4045,7 +3834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
@@ -4077,7 +3866,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
@@ -4109,7 +3898,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="3" t="s">
         <v>47</v>
       </c>
@@ -4141,7 +3930,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="3" t="s">
         <v>48</v>
       </c>
@@ -4173,7 +3962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
@@ -4205,7 +3994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="3" t="s">
         <v>50</v>
       </c>
@@ -4237,7 +4026,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="3" t="s">
         <v>51</v>
       </c>
@@ -4269,7 +4058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="3" t="s">
         <v>52</v>
       </c>
@@ -4301,7 +4090,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="3" t="s">
         <v>53</v>
       </c>
@@ -4333,7 +4122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
         <v>54</v>
       </c>
@@ -4365,7 +4154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="3" t="s">
         <v>55</v>
       </c>
@@ -4397,7 +4186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
@@ -4429,7 +4218,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="3" t="s">
         <v>56</v>
       </c>
@@ -4461,7 +4250,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
@@ -4478,7 +4267,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
@@ -4495,7 +4284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
